--- a/const/sensitive_words.xlsx
+++ b/const/sensitive_words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="5700" yWindow="840" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>操你</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,6 +426,22 @@
   </si>
   <si>
     <t>dick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李克强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A82"/>
+  <dimension ref="A1:A86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1252,6 +1268,26 @@
         <v>81</v>
       </c>
     </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
